--- a/files/Timdeplatvis111/Bestand2.xlsx
+++ b/files/Timdeplatvis111/Bestand2.xlsx
@@ -1,33 +1,118 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timde\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0107D273-5937-42F2-99ED-EEA52C929B00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Bestand2Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Bestand2Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>Dit is bestand 2</t>
+  </si>
+  <si>
+    <t>Dit is bestand 2 column 2</t>
+  </si>
+  <si>
+    <t>Data bestand 2</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Bestand 2 column 2</t>
+  </si>
+  <si>
+    <t>Test7</t>
+  </si>
+  <si>
+    <t>Bestand 2 column 3</t>
+  </si>
+  <si>
+    <t>Test4</t>
+  </si>
+  <si>
+    <t>Bestand 2 column 4</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Bestand 2 column 5</t>
+  </si>
+  <si>
+    <t>Test9</t>
+  </si>
+  <si>
+    <t>Bestand 2 column 6</t>
+  </si>
+  <si>
+    <t>Test5</t>
+  </si>
+  <si>
+    <t>Bestand 2 column 7</t>
+  </si>
+  <si>
+    <t>Test12344</t>
+  </si>
+  <si>
+    <t>Test12345</t>
+  </si>
+  <si>
+    <t>Test4444</t>
+  </si>
+  <si>
+    <t>Test1237777</t>
+  </si>
+  <si>
+    <t>Test1234479</t>
+  </si>
+  <si>
+    <t>Bestand 2 column 8</t>
+  </si>
+  <si>
+    <t>Bestand 2 column 9</t>
+  </si>
+  <si>
+    <t>Bestand 2 column 10</t>
+  </si>
+  <si>
+    <t>Bestand 2 column 11</t>
+  </si>
+  <si>
+    <t>Bestand 2 column 12</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -43,15 +128,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -317,144 +411,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="15.7109375"/>
-    <col customWidth="1" max="2" min="2" width="33.85546875"/>
-    <col customWidth="1" max="3" min="3" width="29.85546875"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Dit is bestand 2</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Dit is bestand 2 column 2</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Data bestand 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Test2</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Bestand 2 column 2</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Bestand 1 column 7 - Test2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Test7</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Bestand 2 column 3</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Bestand 1 column 4 - Test7</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Test4</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Bestand 2 column 4</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Bestand 1 column 2 -  Test4</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Test3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bestand 2 column 5</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Bestand 1 column 5 - Test3</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Test9</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bestand 2 column 6</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Bestand 1 column 6 - Test9</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Test5</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Bestand 2 column 7</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Bestand 1 column 3 -  Test5</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/files/Timdeplatvis111/Bestand2.xlsx
+++ b/files/Timdeplatvis111/Bestand2.xlsx
@@ -8,19 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timde\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0107D273-5937-42F2-99ED-EEA52C929B00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9C485D-7DCA-41BB-9A45-770632F81C77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bestand2Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>Dit is bestand 2</t>
   </si>
@@ -31,39 +38,21 @@
     <t>Data bestand 2</t>
   </si>
   <si>
-    <t>Test2</t>
-  </si>
-  <si>
     <t>Bestand 2 column 2</t>
   </si>
   <si>
-    <t>Test7</t>
-  </si>
-  <si>
     <t>Bestand 2 column 3</t>
   </si>
   <si>
-    <t>Test4</t>
-  </si>
-  <si>
     <t>Bestand 2 column 4</t>
   </si>
   <si>
-    <t>Test3</t>
-  </si>
-  <si>
     <t>Bestand 2 column 5</t>
   </si>
   <si>
-    <t>Test9</t>
-  </si>
-  <si>
     <t>Bestand 2 column 6</t>
   </si>
   <si>
-    <t>Test5</t>
-  </si>
-  <si>
     <t>Bestand 2 column 7</t>
   </si>
   <si>
@@ -95,6 +84,39 @@
   </si>
   <si>
     <t>Bestand 2 column 12</t>
+  </si>
+  <si>
+    <t>Test243242</t>
+  </si>
+  <si>
+    <t>Test742342</t>
+  </si>
+  <si>
+    <t>Test44242</t>
+  </si>
+  <si>
+    <t>Test32423</t>
+  </si>
+  <si>
+    <t>Test9424242</t>
+  </si>
+  <si>
+    <t>Test5423</t>
+  </si>
+  <si>
+    <t>dwa</t>
+  </si>
+  <si>
+    <t>dwadwa</t>
+  </si>
+  <si>
+    <t>dada</t>
+  </si>
+  <si>
+    <t>ada</t>
+  </si>
+  <si>
+    <t>Dit is bestand 2 column 28</t>
   </si>
 </sst>
 </file>
@@ -412,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,9 +445,10 @@
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="33.85546875" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="28" max="28" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,93 +458,162 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="AB1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
